--- a/simulation_data/iterative_algorithm/i_error_level_10_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_10_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.00031130095459</v>
+        <v>89.46614182462808</v>
       </c>
       <c r="D2" t="n">
-        <v>16.11797651014751</v>
+        <v>16.62474413581153</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.08772323886173</v>
+        <v>88.89021508584074</v>
       </c>
       <c r="D3" t="n">
-        <v>18.3994287276421</v>
+        <v>16.78684672627948</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.48559020235983</v>
+        <v>88.26088958885197</v>
       </c>
       <c r="D4" t="n">
-        <v>17.84933972067377</v>
+        <v>18.99441323133823</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.61155193511495</v>
+        <v>83.81751397887612</v>
       </c>
       <c r="D5" t="n">
-        <v>19.7284536353851</v>
+        <v>15.53739321490683</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.65681443741563</v>
+        <v>85.76306894154297</v>
       </c>
       <c r="D6" t="n">
-        <v>18.07724943921405</v>
+        <v>17.48964162887512</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.08220826373098</v>
+        <v>82.9937651975289</v>
       </c>
       <c r="D7" t="n">
-        <v>18.11181875837222</v>
+        <v>16.67768865172705</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.96123782511623</v>
+        <v>83.59202453946314</v>
       </c>
       <c r="D8" t="n">
-        <v>19.24122233511951</v>
+        <v>15.93945720720103</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.30699262920557</v>
+        <v>81.70111173030206</v>
       </c>
       <c r="D9" t="n">
-        <v>17.42583511562693</v>
+        <v>16.14129016530206</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.32973192597372</v>
+        <v>83.6737239902004</v>
       </c>
       <c r="D10" t="n">
-        <v>18.66914177170857</v>
+        <v>17.20919065861694</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.29848634154888</v>
+        <v>79.73134609930793</v>
       </c>
       <c r="D11" t="n">
-        <v>20.1058257286935</v>
+        <v>16.8718277681147</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>78.9477946451093</v>
+        <v>76.32910755590154</v>
       </c>
       <c r="D12" t="n">
-        <v>18.50318384297164</v>
+        <v>17.76228784214027</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>77.0184800168844</v>
+        <v>81.03476814891901</v>
       </c>
       <c r="D13" t="n">
-        <v>16.30206296646108</v>
+        <v>17.59802931400656</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.72624720478042</v>
+        <v>79.48983302501512</v>
       </c>
       <c r="D14" t="n">
-        <v>17.86589968276164</v>
+        <v>17.95621625131207</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>74.86729697531152</v>
+        <v>78.0060648226126</v>
       </c>
       <c r="D15" t="n">
-        <v>17.15039288363317</v>
+        <v>17.52964091975185</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.77943598688714</v>
+        <v>76.60178733201501</v>
       </c>
       <c r="D16" t="n">
-        <v>16.05536392490865</v>
+        <v>20.20160229076437</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.78576986827792</v>
+        <v>74.36635839933572</v>
       </c>
       <c r="D17" t="n">
-        <v>19.10691064300389</v>
+        <v>16.61178236824258</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.14222029523708</v>
+        <v>75.85880651242566</v>
       </c>
       <c r="D18" t="n">
-        <v>17.15170928468517</v>
+        <v>17.77682044390751</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.93648327753058</v>
+        <v>71.73437886488577</v>
       </c>
       <c r="D19" t="n">
-        <v>19.14063101008658</v>
+        <v>18.68411681101842</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.99542056257442</v>
+        <v>73.28504358609253</v>
       </c>
       <c r="D20" t="n">
-        <v>19.53171861029331</v>
+        <v>18.03764357082385</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.77976824358807</v>
+        <v>67.7801091670616</v>
       </c>
       <c r="D21" t="n">
-        <v>18.19344279991608</v>
+        <v>17.13715545986939</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>66.34776945177573</v>
+        <v>74.47137645154972</v>
       </c>
       <c r="D22" t="n">
-        <v>19.07000495445819</v>
+        <v>16.53041272427635</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>66.80453778760622</v>
+        <v>68.3616522055032</v>
       </c>
       <c r="D23" t="n">
-        <v>19.07671220045399</v>
+        <v>16.22357205981614</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>66.23021713366751</v>
+        <v>69.83805446980587</v>
       </c>
       <c r="D24" t="n">
-        <v>18.80103346074549</v>
+        <v>17.47687472572134</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.44405656088516</v>
+        <v>66.01557005602085</v>
       </c>
       <c r="D25" t="n">
-        <v>18.59161185254651</v>
+        <v>17.81906928343556</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>69.25299533092607</v>
+        <v>63.78182294676803</v>
       </c>
       <c r="D26" t="n">
-        <v>16.76337626321477</v>
+        <v>16.45305274890981</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>61.6477428412805</v>
+        <v>65.25129398192205</v>
       </c>
       <c r="D27" t="n">
-        <v>18.9141049001176</v>
+        <v>18.06450829067966</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.89005360894192</v>
+        <v>63.00660987585719</v>
       </c>
       <c r="D28" t="n">
-        <v>21.46534086522804</v>
+        <v>17.16078152850098</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>59.58156549338845</v>
+        <v>61.69139913932846</v>
       </c>
       <c r="D29" t="n">
-        <v>17.87941727856239</v>
+        <v>17.77637131312603</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.5450851024038</v>
+        <v>59.67359460082607</v>
       </c>
       <c r="D30" t="n">
-        <v>18.95736700885083</v>
+        <v>17.74939988753403</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>65.80964790007187</v>
+        <v>59.06645374575366</v>
       </c>
       <c r="D31" t="n">
-        <v>16.6724458189483</v>
+        <v>17.54962886401533</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>58.6865400562697</v>
+        <v>61.9793001385009</v>
       </c>
       <c r="D32" t="n">
-        <v>17.83374890272788</v>
+        <v>17.92843430123908</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.7868625133409</v>
+        <v>58.5547127606027</v>
       </c>
       <c r="D33" t="n">
-        <v>17.03130311585073</v>
+        <v>18.9083175474862</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.38558919774995</v>
+        <v>56.42393560575027</v>
       </c>
       <c r="D34" t="n">
-        <v>18.29603723566821</v>
+        <v>17.76980929322252</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.3186888140638</v>
+        <v>57.51269020648701</v>
       </c>
       <c r="D35" t="n">
-        <v>18.12859701869407</v>
+        <v>17.97708307270702</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.81423333813466</v>
+        <v>54.19347524231113</v>
       </c>
       <c r="D36" t="n">
-        <v>18.82765676946754</v>
+        <v>18.96380895550918</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.172745528694</v>
+        <v>51.23537056461933</v>
       </c>
       <c r="D37" t="n">
-        <v>16.63978986061755</v>
+        <v>17.79946533349353</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.63837028457428</v>
+        <v>53.35965349911507</v>
       </c>
       <c r="D38" t="n">
-        <v>19.77168436709085</v>
+        <v>14.86387621339722</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.69788464680065</v>
+        <v>52.86048310259535</v>
       </c>
       <c r="D39" t="n">
-        <v>18.45354548400615</v>
+        <v>15.8807553161343</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.85290147770842</v>
+        <v>56.54385465682754</v>
       </c>
       <c r="D40" t="n">
-        <v>16.93999746894502</v>
+        <v>17.43297481850039</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.41944465924921</v>
+        <v>51.63904001576357</v>
       </c>
       <c r="D41" t="n">
-        <v>18.0286927882667</v>
+        <v>17.96407563049226</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.32392569569213</v>
+        <v>48.94970877515947</v>
       </c>
       <c r="D42" t="n">
-        <v>19.33123526735864</v>
+        <v>17.27690977707118</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.57820756024714</v>
+        <v>49.76224602002611</v>
       </c>
       <c r="D43" t="n">
-        <v>18.37848279459148</v>
+        <v>18.2664998942516</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>50.49472647438184</v>
+        <v>46.99156313748004</v>
       </c>
       <c r="D44" t="n">
-        <v>16.98121822404934</v>
+        <v>18.03528528842505</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.11678470781511</v>
+        <v>49.83294937721721</v>
       </c>
       <c r="D45" t="n">
-        <v>17.96649129912361</v>
+        <v>20.01255950826176</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.79595767519982</v>
+        <v>42.77226773583227</v>
       </c>
       <c r="D46" t="n">
-        <v>18.36788676572586</v>
+        <v>15.83856852662197</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.9844296164342</v>
+        <v>45.78962446578397</v>
       </c>
       <c r="D47" t="n">
-        <v>17.9943739965312</v>
+        <v>19.32771506123018</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.87258192586848</v>
+        <v>43.24757287756106</v>
       </c>
       <c r="D48" t="n">
-        <v>17.0366616071983</v>
+        <v>18.87074523217657</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.35148291762617</v>
+        <v>40.08370975289494</v>
       </c>
       <c r="D49" t="n">
-        <v>19.99577753868351</v>
+        <v>19.59595228197363</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.80065172968549</v>
+        <v>43.68343225709577</v>
       </c>
       <c r="D50" t="n">
-        <v>17.65110795930869</v>
+        <v>16.16454832953801</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>43.43108602350873</v>
+        <v>39.75627306611387</v>
       </c>
       <c r="D51" t="n">
-        <v>17.88496800715935</v>
+        <v>15.72834887384392</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>37.81480078623998</v>
+        <v>39.79763583228202</v>
       </c>
       <c r="D52" t="n">
-        <v>17.3583694021981</v>
+        <v>20.01237170408572</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>41.64611993701747</v>
+        <v>37.26442418696691</v>
       </c>
       <c r="D53" t="n">
-        <v>19.61661523226977</v>
+        <v>19.42877262651083</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.81237190620166</v>
+        <v>37.61145958638176</v>
       </c>
       <c r="D54" t="n">
-        <v>18.20984660738282</v>
+        <v>18.93135232978649</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>40.02846752935082</v>
+        <v>36.64219451424744</v>
       </c>
       <c r="D55" t="n">
-        <v>19.36633359971285</v>
+        <v>17.31387242295131</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.48730768617272</v>
+        <v>35.53297155882304</v>
       </c>
       <c r="D56" t="n">
-        <v>17.82369646553733</v>
+        <v>20.19025914331052</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.03118384588666</v>
+        <v>34.12279183986877</v>
       </c>
       <c r="D57" t="n">
-        <v>19.09186761428681</v>
+        <v>20.24331382194628</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>36.35298324937672</v>
+        <v>34.28894995621346</v>
       </c>
       <c r="D58" t="n">
-        <v>19.00425119126986</v>
+        <v>16.43990443545863</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.94846288820662</v>
+        <v>34.12463802906747</v>
       </c>
       <c r="D59" t="n">
-        <v>17.56751889006651</v>
+        <v>17.26410372046962</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.76458640368154</v>
+        <v>29.8236269624397</v>
       </c>
       <c r="D60" t="n">
-        <v>17.71719464820096</v>
+        <v>18.02663881679335</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.81347540242326</v>
+        <v>29.10591193657017</v>
       </c>
       <c r="D61" t="n">
-        <v>18.29693750425005</v>
+        <v>17.84094309664702</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.12401738631491</v>
+        <v>28.69589067293055</v>
       </c>
       <c r="D62" t="n">
-        <v>18.10107744533193</v>
+        <v>18.37162523535407</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.06823802495573</v>
+        <v>27.61050437366013</v>
       </c>
       <c r="D63" t="n">
-        <v>16.50166428640133</v>
+        <v>18.32769561065188</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.95644484427719</v>
+        <v>25.52134462342571</v>
       </c>
       <c r="D64" t="n">
-        <v>18.42571901278814</v>
+        <v>19.1789035953205</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.70736182743677</v>
+        <v>28.39693767617231</v>
       </c>
       <c r="D65" t="n">
-        <v>17.55848601783287</v>
+        <v>17.37585429500862</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>29.1594994473528</v>
+        <v>24.71419856757903</v>
       </c>
       <c r="D66" t="n">
-        <v>19.64557381864588</v>
+        <v>21.35582239259465</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.26584846093035</v>
+        <v>23.63916461124086</v>
       </c>
       <c r="D67" t="n">
-        <v>18.73059033904805</v>
+        <v>18.34491292805205</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.85891269473575</v>
+        <v>19.03897825897407</v>
       </c>
       <c r="D68" t="n">
-        <v>19.0859116058357</v>
+        <v>18.65681726065947</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.63882130763922</v>
+        <v>23.2242298444298</v>
       </c>
       <c r="D69" t="n">
-        <v>16.17055644867896</v>
+        <v>16.93295510975263</v>
       </c>
     </row>
   </sheetData>
